--- a/results/Protocol_Dxxxxxx_RUN_1.xlsx
+++ b/results/Protocol_Dxxxxxx_RUN_1.xlsx
@@ -811,7 +811,7 @@
       <c r="E2" s="12" t="n"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -832,10 +832,8 @@
       </c>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>NOK</t>
-        </is>
+      <c r="F3" s="1" t="n">
+        <v/>
       </c>
       <c r="G3" s="1" t="n"/>
       <c r="H3" s="1" t="n"/>
@@ -899,7 +897,7 @@
       </c>
       <c r="F5" s="9" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="G5" s="28" t="n"/>
@@ -923,7 +921,7 @@
       </c>
       <c r="F6" s="28" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="G6" s="28" t="n"/>
@@ -983,7 +981,7 @@
       <c r="E8" s="10" t="n"/>
       <c r="F8" s="28" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="G8" s="31" t="n"/>
@@ -1089,7 +1087,7 @@
       </c>
       <c r="F12" s="28" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="G12" s="31" t="n"/>
@@ -1171,7 +1169,7 @@
       </c>
       <c r="F15" s="28" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="G15" s="31" t="n"/>
@@ -1202,7 +1200,7 @@
       <c r="E16" s="10" t="n"/>
       <c r="F16" s="28" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="G16" s="31" t="n"/>
@@ -1279,7 +1277,7 @@
       </c>
       <c r="F19" s="28" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="G19" s="31" t="n"/>
